--- a/reference_docs/db.xlsx
+++ b/reference_docs/db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MyProject\Supporting Docs\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MyProject\OnlineDoctorAppointmentSystem\reference_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -145,9 +145,6 @@
     <t>View  by Treatment -----&gt;</t>
   </si>
   <si>
-    <t>View  by CITY -----&gt;</t>
-  </si>
-  <si>
     <t>ID(FK)</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>Book Slot -----&gt;</t>
-  </si>
-  <si>
     <t>PatientID
 (fk)</t>
   </si>
@@ -190,6 +184,32 @@
   </si>
   <si>
     <t>buffer Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">booked_appointments_table </t>
+  </si>
+  <si>
+    <t>For Doctor</t>
+  </si>
+  <si>
+    <t>For Patient</t>
+  </si>
+  <si>
+    <t>ID(fk)</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>View  by CITY -----&gt;
+Onclick</t>
+  </si>
+  <si>
+    <t>&lt;&lt; data will be fetched from this table and 
+LIST OF HOSPITALWILL BE DISPLAYED</t>
+  </si>
+  <si>
+    <t>Book Slot -----&gt; Onclick</t>
   </si>
 </sst>
 </file>
@@ -218,7 +238,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +251,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -504,11 +530,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,80 +673,146 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AR63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,71 +1107,82 @@
     <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="17.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" style="4" customWidth="1"/>
-    <col min="30" max="30" width="12" style="1" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" style="1"/>
-    <col min="33" max="33" width="13.28515625" style="1" customWidth="1"/>
-    <col min="34" max="38" width="9.140625" style="1"/>
-    <col min="39" max="39" width="12.42578125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="13.5703125" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" customWidth="1"/>
+    <col min="16" max="17" width="10.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="11"/>
+    <col min="21" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="12.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="11" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="17.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" style="4" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="4" customWidth="1"/>
+    <col min="34" max="34" width="12" style="1" customWidth="1"/>
+    <col min="35" max="36" width="9.140625" style="1"/>
+    <col min="37" max="37" width="13.28515625" style="1" customWidth="1"/>
+    <col min="38" max="42" width="9.140625" style="1"/>
+    <col min="43" max="43" width="12.42578125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.5703125" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:44" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+    </row>
+    <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="L4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:40" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="N4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="1:44" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -988,6 +1198,7 @@
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
@@ -998,91 +1209,101 @@
         <v>13</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="P10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23"/>
+      <c r="U10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="17"/>
+      <c r="AC10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="23"/>
+      <c r="AJ10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="G10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="N10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="12"/>
-      <c r="R10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="12"/>
-      <c r="Y10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="12"/>
-      <c r="AF10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="12"/>
-      <c r="AJ10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="12"/>
-    </row>
-    <row r="11" spans="1:40" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="23"/>
+      <c r="AN10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="23"/>
+    </row>
+    <row r="11" spans="1:44" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1098,6 +1319,7 @@
       <c r="E11" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="6" t="s">
         <v>0</v>
       </c>
@@ -1116,383 +1338,556 @@
       <c r="L11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="M11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="R11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="S11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="W11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="X11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="Y11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="Z11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y11" s="6" t="s">
+      <c r="AA11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="AD11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC11" s="8" t="s">
+      <c r="AE11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH11" s="35" t="s">
-        <v>0</v>
+      <c r="AH11" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="AJ11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AK11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AQ11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AM11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN11" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="H13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="N13" s="14" t="s">
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="P13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="14" t="s">
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-    </row>
-    <row r="15" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+    </row>
+    <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="G19" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="G20" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="C23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="G23" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="G24" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="41"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="41"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="40"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="40"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="15" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="41"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="41"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="40"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="40"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="41"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="41"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="15" t="s">
+      <c r="F58" s="45"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
+      <c r="C60" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="22"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
+      <c r="I60" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="17"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="20"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C62" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="I62" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="39"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C60:F61"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="AJ10:AN10"/>
-    <mergeCell ref="A56:E57"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="Y10:AD10"/>
+  <mergeCells count="53">
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="F48:I49"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="I62:N63"/>
+    <mergeCell ref="I60:N61"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:Z13"/>
+    <mergeCell ref="U10:AA10"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="A16:E17"/>
@@ -1507,19 +1902,21 @@
     <mergeCell ref="C23:E24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C60:G61"/>
+    <mergeCell ref="C62:G63"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="A56:E57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="AC10:AH10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
